--- a/rekap baru/juli 2021.xlsx
+++ b/rekap baru/juli 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\rekap-tahfidz\rekap baru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CED8D9B-6EC3-4EAB-BAED-5FDC8BC16452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4140F1-03ED-4B53-A52C-789E80DD30DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{A8EED0C8-06D7-41A2-AC92-249F75B95237}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{A8EED0C8-06D7-41A2-AC92-249F75B95237}"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="2 putra" sheetId="3" r:id="rId3"/>
     <sheet name="2 putri" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2 putri'!$A$1:$G$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>DATA PENCAPAIAN TAHFIDZ</t>
   </si>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t>Siti Khodijah</t>
+  </si>
+  <si>
+    <t>Juli 2021 - Marhalah 2 Putri</t>
   </si>
 </sst>
 </file>
@@ -259,112 +265,62 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -763,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC391A1-DFB1-4C82-81C4-6460E216B804}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -777,89 +733,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>600</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="9">
         <v>610</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="7">
         <f t="shared" ref="F6:F11" si="0">(E6-D6+20)/20</f>
         <v>1.5</v>
       </c>
-      <c r="G6" s="10" t="str">
-        <f t="shared" ref="G6:G12" si="1">IF(F6&gt;=1,"Tercapai","Belum Tercapai")</f>
+      <c r="G6" s="6" t="str">
+        <f t="shared" ref="G6:G11" si="1">IF(F6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Tercapai</v>
       </c>
     </row>
@@ -867,19 +823,19 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>30</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="9">
         <v>29</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G7" s="10" t="str">
+      <c r="G7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
@@ -888,59 +844,59 @@
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
         <v>410</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>410</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="G8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <v>30</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="9">
         <v>10</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
@@ -949,47 +905,47 @@
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="11">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="10" t="str">
+      <c r="G11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="13">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="8">
         <f>COUNTIF(G6:G11,"Tercapai")</f>
         <v>4</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="10">
         <f>F12/ROWS(G6:G11)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="F6:F11">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
@@ -1008,10 +964,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0AB43F-E22A-4B5D-ABD1-909796AAAAA1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1024,272 +983,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>600</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="9">
         <v>610</v>
       </c>
-      <c r="F6" s="11">
-        <f t="shared" ref="F6:F11" si="0">(E6-D6+20)/20</f>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:F10" si="0">(E6-D6+20)/20</f>
         <v>1.5</v>
       </c>
-      <c r="G6" s="10" t="str">
-        <f t="shared" ref="G6:G11" si="1">IF(F6&gt;=1,"Tercapai","Belum Tercapai")</f>
+      <c r="G6" s="6" t="str">
+        <f t="shared" ref="G6:G10" si="1">IF(F6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>30</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="9">
         <v>29</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G7" s="10" t="str">
+      <c r="G7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
         <v>410</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>410</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="G8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <v>30</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="9">
         <v>10</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="11">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7">
         <f t="shared" ref="F11:F15" si="2">(E11-D11+20)/20</f>
         <v>1</v>
       </c>
-      <c r="G11" s="10" t="str">
+      <c r="G11" s="6" t="str">
         <f t="shared" ref="G11:G15" si="3">IF(F11&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G13" s="10" t="str">
+      <c r="G13" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G14" s="10" t="str">
+      <c r="G14" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G15" s="10" t="str">
+      <c r="G15" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Tercapai</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="13">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8">
         <f>COUNTIF(G6:G15,"Tercapai")</f>
         <v>8</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="10">
         <f>F16/ROWS(G6:G15)</f>
         <v>0.8</v>
       </c>
@@ -1327,6 +1286,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="10000" scale="93" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rekap baru/juli 2021.xlsx
+++ b/rekap baru/juli 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\rekap-tahfidz\rekap baru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063852EA-0294-42A2-893D-8CAFB62DA7A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCF4932-4A84-4BEA-9DE9-61607F9AAAA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,9 @@
     <sheet name="2 putri" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1 putra'!$A$1:$H$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1 putra'!$A$1:$H$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1 putri'!$A$1:$H$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2 putra'!$A$1:$H$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2 putra'!$A$1:$H$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2 putri'!$A$1:$H$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -599,6 +599,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,35 +649,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1049,10 +1089,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1060,7 +1100,7 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
@@ -1068,28 +1108,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -1101,34 +1141,34 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="17" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1137,8 +1177,8 @@
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
@@ -1164,7 +1204,7 @@
         <v>1.0909090909090908</v>
       </c>
       <c r="H6" s="5" t="str">
-        <f>IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <f t="shared" ref="H6:H14" si="0">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>Tercapai</v>
       </c>
     </row>
@@ -1192,7 +1232,7 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f>IF(G7&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
@@ -1206,7 +1246,7 @@
       <c r="C8" s="5">
         <v>30</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="16" t="s">
         <v>101</v>
       </c>
       <c r="E8" s="5">
@@ -1220,7 +1260,7 @@
         <v>1.3636363636363635</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f>IF(G8&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
       <c r="I8" s="13"/>
@@ -1235,7 +1275,7 @@
       <c r="C9" s="5">
         <v>30</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="16" t="s">
         <v>124</v>
       </c>
       <c r="E9" s="5">
@@ -1249,7 +1289,7 @@
         <v>2.4545454545454546</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f>IF(G9&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
@@ -1277,7 +1317,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f>IF(G10&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
@@ -1305,7 +1345,7 @@
         <v>1.3636363636363635</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f>IF(G11&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
     </row>
@@ -1333,7 +1373,7 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f>IF(G12&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
@@ -1361,7 +1401,7 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f>IF(G13&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
@@ -1389,30 +1429,115 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f>IF(G14&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="5">
+        <f>582+12</f>
+        <v>594</v>
+      </c>
+      <c r="F15" s="10">
+        <v>29</v>
+      </c>
+      <c r="G15" s="11">
+        <f>(23+29)/11</f>
+        <v>4.7272727272727275</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>IF(G15&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <v>Tercapai</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="5">
+        <v>594</v>
+      </c>
+      <c r="F16" s="10">
+        <v>29</v>
+      </c>
+      <c r="G16" s="11">
+        <f>(23+29)/11</f>
+        <v>4.7272727272727275</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>IF(G16&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <v>Tercapai</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="5">
+        <v>594</v>
+      </c>
+      <c r="F17" s="10">
+        <v>4</v>
+      </c>
+      <c r="G17" s="11">
+        <f>(23+4)/11</f>
+        <v>2.4545454545454546</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>IF(G17&gt;=1,"Tercapai","Belum Tercapai")</f>
+        <v>Tercapai</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="7">
-        <f>COUNTIF(H6:H14,"Tercapai")</f>
-        <v>4</v>
-      </c>
-      <c r="H15" s="12">
-        <f>G15/ROWS(H6:H14)</f>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="24" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="7">
+        <f>COUNTIF(H6:H17,"Tercapai")</f>
+        <v>7</v>
+      </c>
+      <c r="H18" s="12">
+        <f>G18/ROWS(H6:H17)</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1422,18 +1547,38 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G14">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H14">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+      <formula>"Belum Tercapai"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"Belum Tercapai"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G17">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H14">
+  <conditionalFormatting sqref="H16:H17">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
@@ -1451,7 +1596,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A7" sqref="A7:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1467,28 +1612,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -1500,30 +1645,30 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1536,33 +1681,33 @@
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="19">
         <v>594</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="30" t="e">
+      <c r="G6" s="21" t="e">
         <f t="shared" ref="G6:G14" si="0">(E6-F6+11)/11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H6" s="28" t="e">
+      <c r="H6" s="19" t="e">
         <f t="shared" ref="H6:H14" si="1">IF(G6&gt;=1,"Tercapai","Belum Tercapai")</f>
         <v>#VALUE!</v>
       </c>
@@ -1622,7 +1767,7 @@
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
@@ -1651,10 +1796,10 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1710,29 +1855,29 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="19">
         <v>30</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="19">
         <v>594</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="30" t="e">
+      <c r="G12" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H12" s="28" t="e">
+      <c r="H12" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
@@ -1766,42 +1911,42 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="19">
         <v>594</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G14" s="30" t="e">
+      <c r="G14" s="21" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="28" t="e">
+      <c r="H14" s="19" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="7">
         <f>COUNTIF(H6:H14,"Tercapai")</f>
         <v>5</v>
@@ -1813,16 +1958,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G14">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
@@ -1844,10 +1989,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1863,28 +2008,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -1896,30 +2041,30 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1932,11 +2077,11 @@
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2021,7 +2166,7 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
@@ -2051,7 +2196,7 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
@@ -2141,130 +2286,45 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="A13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="7">
+        <f>COUNTIF(H6:H12,"Tercapai")</f>
         <v>1</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="5">
-        <f>582+12</f>
-        <v>594</v>
-      </c>
-      <c r="F13" s="10">
-        <v>29</v>
-      </c>
-      <c r="G13" s="11">
-        <f>(23+29)/11</f>
-        <v>4.7272727272727275</v>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f>IF(G13&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Tercapai</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="5">
-        <v>594</v>
-      </c>
-      <c r="F14" s="10">
-        <v>29</v>
-      </c>
-      <c r="G14" s="11">
-        <f>(23+29)/11</f>
-        <v>4.7272727272727275</v>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f>IF(G14&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Tercapai</v>
+      <c r="H13" s="12">
+        <f>G13/ROWS(H6:H12)</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="5">
-        <v>594</v>
-      </c>
-      <c r="F15" s="10">
-        <v>4</v>
-      </c>
-      <c r="G15" s="11">
-        <f>(23+4)/11</f>
-        <v>2.4545454545454546</v>
-      </c>
-      <c r="H15" s="5" t="str">
-        <f>IF(G15&gt;=1,"Tercapai","Belum Tercapai")</f>
-        <v>Tercapai</v>
+      <c r="A15" s="15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="7">
-        <f>COUNTIF(H6:H15,"Tercapai")</f>
-        <v>4</v>
-      </c>
-      <c r="H16" s="12">
-        <f>G16/ROWS(H6:H15)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="24" t="s">
+      <c r="A16" s="15" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
     <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
@@ -2273,26 +2333,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
-      <formula>"Belum Tercapai"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"Belum Tercapai"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2309,7 +2349,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A6" sqref="A6:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2325,28 +2365,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -2358,30 +2398,30 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2394,8 +2434,8 @@
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="21"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
@@ -2480,7 +2520,7 @@
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
@@ -2509,10 +2549,10 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2680,14 +2720,14 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="7">
         <f>COUNTIF(H6:H15,"Tercapai")</f>
         <v>4</v>
@@ -2698,27 +2738,27 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="15" t="s">
         <v>103</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G15">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">

--- a/rekap baru/juli 2021.xlsx
+++ b/rekap baru/juli 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\rekap-tahfidz\rekap baru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCF4932-4A84-4BEA-9DE9-61607F9AAAA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D8414C-A560-4F0B-B467-B58B2E4B5A3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>DATA PENCAPAIAN TAHFIDZ</t>
   </si>
@@ -407,13 +407,16 @@
   </si>
   <si>
     <t>Al-Ashr</t>
+  </si>
+  <si>
+    <t>An-Naziat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,23 +432,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,15 +570,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -577,39 +587,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,82 +629,48 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1554,32 +1530,32 @@
     <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G14">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H14">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G17">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:H17">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1595,8 +1571,8 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1855,31 +1831,31 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="32">
         <v>30</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="32">
         <v>594</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" s="19" t="e">
+      <c r="F12" s="10">
+        <v>584</v>
+      </c>
+      <c r="G12" s="21">
+        <f>(F12-E12+11)/11</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="H12" s="19" t="str">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>Belum Tercapai</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1958,24 +1934,24 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G14">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H14">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1991,8 +1967,8 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2315,24 +2291,24 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H12">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Belum Tercapai"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2749,16 +2725,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G15">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
